--- a/biology/Botanique/Rourea_frutescens/Rourea_frutescens.xlsx
+++ b/biology/Botanique/Rourea_frutescens/Rourea_frutescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rourea frutescens est une espèce rare d'arbuste, appartenant à la famille des Connaraceae. Il s'agit de l'espèce type du genre Rourea Aubl..
-Le nom du genre Rourea fait vraisemblablement référence à la commune de Roura en Guyane, région dans laquelle le spécimen type a été collecté[3].
+Le nom du genre Rourea fait vraisemblablement référence à la commune de Roura en Guyane, région dans laquelle le spécimen type a été collecté.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rourea frutescens est un arbuste ou une liane ligneuse. 
 Les jeunes rameaux sont tomenteux ferrugineux.
@@ -524,9 +538,9 @@
 Le calice croît lors de la fructification.
 Les pétales sont glabres, dépourvus de points glandulaires.
 On compte 5 carpelles.
-Le fruit est un follicule sessile (1 voire 2 par fleur), dépourvu d'endosperme, de forme brièvement ovoïde, long de 7 mm[4],[5]. 
-Les graines sont longues de 10,5 mm pour 5,1 mm de large[6].
-Rourea frutescens ressemble fort à Connarus pubescens D.C. (synonyme de Rourea pubescens (DC.) Radlk.[7], mais s'en distingue par les nervations transversales (et non réticulées) sur ses folioles[4].
+Le fruit est un follicule sessile (1 voire 2 par fleur), dépourvu d'endosperme, de forme brièvement ovoïde, long de 7 mm,. 
+Les graines sont longues de 10,5 mm pour 5,1 mm de large.
+Rourea frutescens ressemble fort à Connarus pubescens D.C. (synonyme de Rourea pubescens (DC.) Radlk., mais s'en distingue par les nervations transversales (et non réticulées) sur ses folioles.
 </t>
         </is>
       </c>
@@ -555,9 +569,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rourea frutescens est présent à Trinidad, au Venezuela, au Guyana, (probablement au Suriname[8]), en Guyane, et au Brésil (Amapá, Amazonas, Pará)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rourea frutescens est présent à Trinidad, au Venezuela, au Guyana, (probablement au Suriname), en Guyane, et au Brésil (Amapá, Amazonas, Pará).
 </t>
         </is>
       </c>
@@ -586,11 +602,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Rourea frutescens dans les forêts sempervirentes de plaine à montagne, autour de 50–1 000 m d'altitude[4].
-Ses fruits charnus zoochores[6] sont consommés par Pithecia pithecia au Suriname[9].
-On a retrouvé son pollen dans des sédiments du delta de l'Orénoque au Venezuela[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Rourea frutescens dans les forêts sempervirentes de plaine à montagne, autour de 50–1 000 m d'altitude.
+Ses fruits charnus zoochores sont consommés par Pithecia pithecia au Suriname.
+On a retrouvé son pollen dans des sédiments du delta de l'Orénoque au Venezuela.
 </t>
         </is>
       </c>
@@ -619,9 +637,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[11] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « ROUREA fruteſcens. (Tabula 187.)
 Frutex trunco quinque-pedali, tortuoſo, ramolo ; ramis ſarmentoſis, volubilibus, ſuprà arbores ſcandentibusi ramulis foliolis. Folia alterna, imparipinnata ; foliolis ovatis, acutis, integerrimis, ſupernè glabris, infernè tomentoſis, albicantibus, tribus aut quatuor oppoſitis, ſeſſilibus, utrinque coſtæ cylindraceæ adnexis. Foliola ſuperiora inferioribus majora. Stipulæ binæ, deciduæ, ad baſim coſtæ folioſæ ; Flores paniculati, axillares aut terminales ; ſingulus flos, ad baſim squamula munitur. Flores expanſi gratum odorem latè ſpargunt.
 Florebat &amp; fructum ferebat Auguſto.
